--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,14 +113,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0024</t>
+    <t>总务（鳄鱼妹）</t>
+    <rPh sb="0" eb="1">
+      <t>zong'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>e'yu'mei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0026</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -136,41 +142,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手缝</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ 无</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
+    <t>来样/ 国产哑光黑色/</t>
+    <rPh sb="0" eb="1">
+      <t>lai'yang</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色圆点，17-16，100，35-15/ 针扣</t>
-    <rPh sb="22" eb="23">
-      <t>zhen'kou</t>
+      <t>guo'chan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ya'guang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hei'se</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机车/ 按样板</t>
+    <rPh sb="0" eb="1">
+      <t>ji'che</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yang'b</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,14 +236,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,19 +358,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
+      <xdr:colOff>69200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>527700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3049506</xdr:colOff>
+      <xdr:colOff>3022600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3225800</xdr:rowOff>
+      <xdr:rowOff>2753700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -394,9 +382,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2387601" y="2235200"/>
-          <a:ext cx="4522705" cy="3022600"/>
+        <a:xfrm rot="-5400000">
+          <a:off x="3544400" y="1649900"/>
+          <a:ext cx="2226000" cy="4452000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -674,7 +662,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -717,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
@@ -725,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>43192</v>
+        <v>43196</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -735,7 +723,7 @@
       </c>
       <c r="C7" s="13">
         <f>C6+7</f>
-        <v>43199</v>
+        <v>43203</v>
       </c>
       <c r="D7" s="12"/>
     </row>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -113,20 +113,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总务（鳄鱼妹）</t>
-    <rPh sb="0" eb="1">
-      <t>zong'wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>e'yu'mei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>mei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0026</t>
+    <t>与龙共舞表带   订单编号：0030</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -142,30 +129,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>来样/ 国产哑光黑色/</t>
+    <t>阿伟（Mack_bobo）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">来样/ 黑色哑光美洲/ </t>
     <rPh sb="0" eb="1">
       <t>lai'yang</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>guo'chan</t>
+      <t>hei'se</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>ya'guang</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>hei'se</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机车/ 按样板</t>
-    <rPh sb="0" eb="1">
-      <t>ji'che</t>
+      <t>mei'zhou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手缝/ 样板</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>an</t>
-    </rPh>
-    <rPh sb="5" eb="6">
       <t>yang'b</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -358,19 +349,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>69200</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>527700</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3022600</xdr:colOff>
+      <xdr:colOff>2993600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2753700</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -382,9 +373,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="-5400000">
-          <a:off x="3544400" y="1649900"/>
-          <a:ext cx="2226000" cy="4452000"/>
+        <a:xfrm>
+          <a:off x="2438401" y="2070101"/>
+          <a:ext cx="4415999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,7 +653,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,7 +665,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -684,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="12"/>
     </row>
@@ -713,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>43196</v>
+        <v>43204</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -723,7 +714,7 @@
       </c>
       <c r="C7" s="13">
         <f>C6+7</f>
-        <v>43203</v>
+        <v>43211</v>
       </c>
       <c r="D7" s="12"/>
     </row>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -113,7 +113,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与龙共舞表带   订单编号：0030</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0036</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -129,35 +133,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo）</t>
+    <t>阿伟（Mack_bobo)</t>
     <rPh sb="0" eb="1">
       <t>a'wei</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">来样/ 黑色哑光美洲/ </t>
-    <rPh sb="0" eb="1">
-      <t>lai'yang</t>
+    <t>爱马仕表带/ 16*14*110*70 2.0-2.0/ 土黄色Epsom</t>
+    <rPh sb="0" eb="1">
+      <t>ai'ma'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao'dai</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>tu'huang'se</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手缝/ 爱马仕</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ya'guang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>mei'zhou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手缝/ 样板</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yang'b</t>
+      <t>ai'ma'shi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -349,19 +350,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>698501</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2993600</xdr:colOff>
+      <xdr:colOff>2511900</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -374,8 +375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438401" y="2070101"/>
-          <a:ext cx="4415999" cy="3311999"/>
+          <a:off x="3060701" y="2273301"/>
+          <a:ext cx="3311999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,7 +654,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +666,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -675,11 +676,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -687,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -696,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
@@ -704,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>43204</v>
+        <v>43208</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -714,7 +715,7 @@
       </c>
       <c r="C7" s="13">
         <f>C6+7</f>
-        <v>43211</v>
+        <v>43215</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -731,6 +732,9 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
       <c r="H9" t="s">
         <v>8</v>
       </c>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -117,7 +117,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与龙共舞表带   订单编号：0036</t>
+    <t>阿伟（Mack_bobo)</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0045</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -133,32 +140,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo)</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱马仕表带/ 16*14*110*70 2.0-2.0/ 土黄色Epsom</t>
-    <rPh sb="0" eb="1">
-      <t>ai'ma'shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>biao'dai</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>tu'huang'se</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手缝/ 爱马仕</t>
+    <t xml:space="preserve">Dan表带订单：19*18*125*75 4.3-2.4/ 针扣/ 棕色 </t>
+    <rPh sb="30" eb="31">
+      <t>zhen'kou</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zong'se</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手缝/ 无</t>
     <rPh sb="0" eb="1">
       <t>shou'feng</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ai'ma'shi</t>
+      <t>wu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -350,19 +347,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>698501</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>203201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2511900</xdr:colOff>
+      <xdr:colOff>3038124</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3213100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -375,8 +372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3060701" y="2273301"/>
-          <a:ext cx="3311999" cy="3311999"/>
+          <a:off x="2387600" y="2438401"/>
+          <a:ext cx="4511324" cy="3009899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,7 +651,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +663,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -676,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="12"/>
     </row>
@@ -705,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>43208</v>
+        <v>43228</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -715,7 +712,7 @@
       </c>
       <c r="C7" s="13">
         <f>C6+7</f>
-        <v>43215</v>
+        <v>43235</v>
       </c>
       <c r="D7" s="12"/>
     </row>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -117,14 +117,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo)</t>
+    <t>阿伟（Makc_bobo）</t>
     <rPh sb="0" eb="1">
       <t>a'wei</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与龙共舞表带   订单编号：0045</t>
+    <t xml:space="preserve">  宝珀/ 20*18*115*75/ 针扣/ 平头</t>
+    <rPh sb="2" eb="3">
+      <t>bao'bo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhen'kou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ping'tou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手缝/ 宝珀</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'po</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0047</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -136,26 +159,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan表带订单：19*18*125*75 4.3-2.4/ 针扣/ 棕色 </t>
-    <rPh sb="30" eb="31">
-      <t>zhen'kou</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>zong'se</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手缝/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -347,19 +350,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>95701</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>203201</xdr:rowOff>
+      <xdr:rowOff>44001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3038124</xdr:colOff>
+      <xdr:colOff>3013100</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3213100</xdr:rowOff>
+      <xdr:rowOff>3356000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -371,9 +374,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2387600" y="2438401"/>
-          <a:ext cx="4511324" cy="3009899"/>
+        <a:xfrm rot="-5400000">
+          <a:off x="3009901" y="1727201"/>
+          <a:ext cx="3311999" cy="4415999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,7 +654,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,7 +666,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -677,7 +680,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -685,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -694,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
@@ -702,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>43228</v>
+        <v>43230</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -712,7 +715,7 @@
       </c>
       <c r="C7" s="13">
         <f>C6+7</f>
-        <v>43235</v>
+        <v>43237</v>
       </c>
       <c r="D7" s="12"/>
     </row>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -113,41 +113,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿伟（Makc_bobo）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  宝珀/ 20*18*115*75/ 针扣/ 平头</t>
-    <rPh sb="2" eb="3">
-      <t>bao'bo</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>zhen'kou</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ping'tou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手缝/ 宝珀</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao'po</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0047</t>
+    <t>与龙共舞表带   订单编号：0050</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -159,6 +125,54 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿伟（再漂三年）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>piao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>san'nain</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按样板做/ 黑色美洲竹节</t>
+    <rPh sb="0" eb="1">
+      <t>an</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yang'b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hei'se</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei'zhou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhu'jie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手缝/ 按样板</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'yang'b</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -350,19 +364,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95701</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>44001</xdr:rowOff>
+      <xdr:rowOff>381001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3013100</xdr:colOff>
+      <xdr:colOff>3022598</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3356000</xdr:rowOff>
+      <xdr:rowOff>2895600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -374,9 +388,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="-5400000">
-          <a:off x="3009901" y="1727201"/>
-          <a:ext cx="3311999" cy="4415999"/>
+        <a:xfrm>
+          <a:off x="2413000" y="2413001"/>
+          <a:ext cx="4470398" cy="2514599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,7 +668,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +680,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -705,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>43230</v>
+        <v>43232</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -715,7 +729,7 @@
       </c>
       <c r="C7" s="13">
         <f>C6+7</f>
-        <v>43237</v>
+        <v>43239</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -732,8 +746,9 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="G9" t="s">
-        <v>9</v>
+      <c r="G9">
+        <f xml:space="preserve"> I9</f>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -109,11 +109,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0050</t>
+    <t>与龙共舞表带   订单编号：0057</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -129,23 +125,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（再漂三年）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zai</t>
+    <t>手缝/ 样板</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>piao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>san'nain</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按样板做/ 黑色美洲竹节</t>
+      <t>yang'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总务</t>
+    <rPh sb="0" eb="1">
+      <t>zong'wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按样板做/ 牛皮</t>
     <rPh sb="0" eb="1">
       <t>an</t>
     </rPh>
@@ -156,23 +153,7 @@
       <t>zuo</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>mei'zhou</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhu'jie</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手缝/ 按样板</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>an'yang'b</t>
+      <t>niu'pi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -364,19 +345,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>381001</xdr:rowOff>
+      <xdr:rowOff>444501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3022598</xdr:colOff>
+      <xdr:colOff>3048000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2895600</xdr:rowOff>
+      <xdr:rowOff>3001964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -389,8 +370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2413000" y="2413001"/>
-          <a:ext cx="4470398" cy="2514599"/>
+          <a:off x="2362200" y="2476501"/>
+          <a:ext cx="4546600" cy="2557463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -665,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,14 +659,14 @@
     <col min="4" max="4" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -694,7 +675,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -705,54 +686,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>43232</v>
+        <v>43239</v>
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="13">
         <f>C6+7</f>
-        <v>43239</v>
+        <v>43246</v>
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="2:8" ht="266" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="266" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="G9">
-        <f xml:space="preserve"> I9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -109,7 +109,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与龙共舞表带   订单编号：0057</t>
+    <t>手缝/ 样板</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yang'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0058</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -125,24 +135,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>手缝/ 样板</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yang'b</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总务</t>
-    <rPh sb="0" eb="1">
-      <t>zong'wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按样板做/ 牛皮</t>
+    <t>阿伟（Mack_bobo）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按样板做/ 高光墨绿色</t>
     <rPh sb="0" eb="1">
       <t>an</t>
     </rPh>
@@ -153,7 +153,10 @@
       <t>zuo</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>niu'pi</t>
+      <t>gao'guang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo'lv'se</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,19 +348,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>63501</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>444501</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:colOff>2980900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3001964</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -370,8 +373,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="2476501"/>
-          <a:ext cx="4546600" cy="2557463"/>
+          <a:off x="2425701" y="2070101"/>
+          <a:ext cx="4415999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,7 +652,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,7 +664,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -692,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
@@ -700,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>43239</v>
+        <v>43241</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -710,7 +713,7 @@
       </c>
       <c r="C7" s="13">
         <f>C6+7</f>
-        <v>43246</v>
+        <v>43248</v>
       </c>
       <c r="D7" s="12"/>
     </row>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -119,7 +119,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与龙共舞表带   订单编号：0058</t>
+    <t>与龙共舞表带   订单编号：0063</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -135,28 +135,84 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo）</t>
+    <t>阿伟（再漂三年）</t>
     <rPh sb="0" eb="1">
       <t>a'wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按样板做/ 高光墨绿色</t>
-    <rPh sb="0" eb="1">
-      <t>an</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yang'b</t>
-    </rPh>
     <rPh sb="3" eb="4">
+      <t>zai'p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>san'n</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">卡地亚蓝气球/ 20*17*112*112/ 正红色国产皮/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾巴薄一点（之前的穿不过去）</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>zheng'hong'se</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>guo'chan'p</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>wei'ba</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bao'yi'dian</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhi'qian</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>de</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>chuan</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>bu'guo'qu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴之前的厚了点，宽度做17mm就可以了</t>
+    <rPh sb="0" eb="1">
+      <t>wei'ba</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou'le'dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kaun'du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>zuo</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>gao'guang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>mo'lv'se</t>
+    <rPh sb="16" eb="17">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ke'y'le</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +282,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,13 +412,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2980900</xdr:colOff>
+      <xdr:colOff>2993600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
@@ -373,7 +437,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425701" y="2070101"/>
+          <a:off x="2438401" y="2273301"/>
           <a:ext cx="4415999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -678,7 +742,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -703,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>43241</v>
+        <v>43245</v>
       </c>
       <c r="D6" s="12"/>
     </row>
@@ -713,7 +777,7 @@
       </c>
       <c r="C7" s="13">
         <f>C6+7</f>
-        <v>43248</v>
+        <v>43252</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -721,7 +785,9 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" ht="266" customHeight="1" x14ac:dyDescent="0.2">

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -29,13 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>业务员：</t>
-    <rPh sb="0" eb="1">
-      <t>ye'wu'y</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
       <t>xia'dan</t>
@@ -109,48 +102,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>手缝/ 样板</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yang'b</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0063</t>
-    <rPh sb="0" eb="1">
-      <t>yu'long'gong'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao'dai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ding'dan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿伟（再漂三年）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zai'p</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>san'n</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">卡地亚蓝气球/ 20*17*112*112/ 正红色国产皮/ </t>
-    </r>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 渠道代理：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -160,59 +119,82 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>尾巴薄一点（之前的穿不过去）</t>
+      <t xml:space="preserve">手缝 </t>
     </r>
-    <rPh sb="23" eb="24">
-      <t>zheng'hong'se</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>guo'chan'p</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 卡地亚</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ka'di'ya</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蔡（Alpha）</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0220</t>
+    <rPh sb="0" eb="1">
+      <t>yu'long'gong'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao'dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*18/卡地亚坦克/ 浅色酒红美洲 * 1/ 注意尾巴做软一点</t>
+    <rPh sb="6" eb="7">
+      <t>ka'di'ya</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tan'ke</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qian'se</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jiu'hong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei'zhou</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wei'ba</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ruan</t>
     </rPh>
     <rPh sb="31" eb="32">
-      <t>wei'ba</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>bao'yi'dian</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>zhi'qian</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>de</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>chuan</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>bu'guo'qu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾巴之前的厚了点，宽度做17mm就可以了</t>
-    <rPh sb="0" eb="1">
-      <t>wei'ba</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'qian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hou'le'dian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>kaun'du</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ke'y'le</t>
+      <t>yi'dain</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -299,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -323,7 +305,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -336,7 +393,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -344,6 +401,51 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -352,46 +454,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,15 +532,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>342901</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2993600</xdr:colOff>
+      <xdr:colOff>2727758</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3337400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -437,8 +557,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438401" y="2273301"/>
-          <a:ext cx="4415999" cy="3311999"/>
+          <a:off x="2705101" y="2273301"/>
+          <a:ext cx="3883457" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,89 +833,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12"/>
+    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
+        <v>43378</v>
+      </c>
+      <c r="D6" s="19"/>
     </row>
-    <row r="4" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18">
+        <f>C6+7</f>
+        <v>43385</v>
+      </c>
+      <c r="D7" s="19"/>
     </row>
-    <row r="5" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="1" t="s">
+    <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" ht="266" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13">
-        <v>43245</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13">
-        <f>C6+7</f>
-        <v>43252</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="2:4" ht="266" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
@@ -107,6 +107,13 @@
   </si>
   <si>
     <t xml:space="preserve"> 渠道代理：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蔡（Alpha）</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'c</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -131,25 +138,51 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/ 卡地亚</t>
+      <t>/ 无</t>
     </r>
     <rPh sb="0" eb="1">
       <t>shou'feng</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>ka'di'ya</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小蔡（Alpha）</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'c</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0220</t>
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>咖色 18*15mm/长度7.5&amp;10cm/厚度4.5mm，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">只有一个活动的圈/ </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间起鼓部分4.5mm厚度</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'gu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'f</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hou'du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0227</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -161,40 +194,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20*18/卡地亚坦克/ 浅色酒红美洲 * 1/ 注意尾巴做软一点</t>
-    <rPh sb="6" eb="7">
-      <t>ka'di'ya</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tan'ke</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>qian'se</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jiu'hong</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>mei'zhou</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>zhu'yi</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>wei'ba</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ruan</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>yi'dain</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -465,6 +464,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,15 +505,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,19 +531,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
+      <xdr:colOff>44901</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:rowOff>31301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2727758</xdr:colOff>
+      <xdr:colOff>2962300</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3337400</xdr:rowOff>
+      <xdr:rowOff>3343300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -556,9 +555,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705101" y="2273301"/>
-          <a:ext cx="3883457" cy="3311999"/>
+        <a:xfrm rot="-5400000">
+          <a:off x="2959101" y="1727201"/>
+          <a:ext cx="3311999" cy="4415999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,7 +835,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,39 +847,39 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="14"/>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>12</v>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.25">
@@ -888,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="18">
-        <v>43378</v>
+        <v>43382</v>
       </c>
       <c r="D6" s="19"/>
     </row>
@@ -898,7 +897,7 @@
       </c>
       <c r="C7" s="18">
         <f>C6+7</f>
-        <v>43385</v>
+        <v>43389</v>
       </c>
       <c r="D7" s="19"/>
     </row>
@@ -906,15 +905,17 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:7" ht="266" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="G9" t="s">
         <v>7</v>
       </c>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
@@ -110,10 +110,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小蔡（Alpha）</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'c</t>
-    </rPh>
+    <t>`</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -138,51 +139,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/ 无</t>
+      <t>/ 样板</t>
     </r>
     <rPh sb="0" eb="1">
       <t>shou'feng</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>咖色 18*15mm/长度7.5&amp;10cm/厚度4.5mm，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">只有一个活动的圈/ </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间起鼓部分4.5mm厚度</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'jian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qi'gu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu'f</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>hou'du</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0227</t>
+      <t>yang'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0252</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -194,6 +162,38 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包夫人（夏先生）</t>
+    <rPh sb="0" eb="1">
+      <t>bao'fu'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'xian's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来样1：1/ 黑色美洲鳄/ 白色线</t>
+    <rPh sb="0" eb="1">
+      <t>lai'yang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hei'se</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mei'zhou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>e</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bai'se</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +271,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,6 +479,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,20 +537,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>44901</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1275996</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>31301</xdr:rowOff>
+      <xdr:rowOff>82908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2962300</xdr:colOff>
+      <xdr:colOff>3033841</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3343300</xdr:rowOff>
+      <xdr:rowOff>3289300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -556,8 +563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="-5400000">
-          <a:off x="2959101" y="1727201"/>
-          <a:ext cx="3311999" cy="4415999"/>
+          <a:off x="2894873" y="1334231"/>
+          <a:ext cx="3206392" cy="4793145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,10 +839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G9"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,79 +855,84 @@
     <col min="4" max="4" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
+    <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="16"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18">
-        <v>43382</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="C6" s="19">
+        <v>43391</v>
+      </c>
+      <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="19">
         <f>C6+7</f>
-        <v>43389</v>
-      </c>
-      <c r="D7" s="19"/>
+        <v>43398</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="2:7" ht="266" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="266" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="G9" t="s">
         <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -932,6 +947,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/prince/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA197E43-3C0D-9D49-A610-CCBF3D7D2D51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
@@ -139,7 +140,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/ 样板</t>
+      <t>/ 卡地亚</t>
     </r>
     <rPh sb="0" eb="1">
       <t>shou'feng</t>
@@ -150,7 +151,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与龙共舞表带   订单编号：0252</t>
+    <t>与龙共舞表带   订单编号：0369</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -166,7 +167,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>包夫人（夏先生）</t>
+    <t>思欣（温真真）</t>
     <rPh sb="0" eb="1">
       <t>bao'fu'r</t>
     </rPh>
@@ -176,7 +177,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>来样1：1/ 黑色美洲鳄/ 白色线</t>
+    <t>卡地亚蓝气球：大号/ 20*18/ 凸头/ 针扣/ 亮面冷蓝色鳄鱼</t>
     <rPh sb="0" eb="1">
       <t>lai'yang</t>
     </rPh>
@@ -184,25 +185,20 @@
       <t>hei'se</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>mei'zhou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>e</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>bai'se</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xian</t>
-    </rPh>
+      <t>mei'zhouebai'sexian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：要针扣款式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +273,15 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -476,10 +481,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,6 +534,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -537,20 +545,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1275996</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>82908</xdr:rowOff>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3033841</xdr:colOff>
+      <xdr:colOff>2980900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3289300</xdr:rowOff>
+      <xdr:rowOff>3337400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5933DE-CAA0-214E-9733-A5765CB414EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -562,9 +576,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="-5400000">
-          <a:off x="2894873" y="1334231"/>
-          <a:ext cx="3206392" cy="4793145"/>
+        <a:xfrm>
+          <a:off x="2425701" y="2298701"/>
+          <a:ext cx="4415999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -838,32 +852,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="17" thickBot="1"/>
+    <row r="2" spans="2:8" ht="21">
       <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="21">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -872,7 +886,7 @@
       </c>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="36">
       <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
@@ -882,47 +896,49 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="21" customHeight="1">
       <c r="B5" s="16"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="21">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>43391</v>
+        <v>43483</v>
       </c>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="21">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="19">
-        <f>C6+7</f>
-        <v>43398</v>
+        <f>C6+5</f>
+        <v>43488</v>
       </c>
       <c r="D7" s="20"/>
       <c r="H7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="21">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="2:8" ht="266" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="266" customHeight="1" thickBot="1">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA197E43-3C0D-9D49-A610-CCBF3D7D2D51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE66F4-C697-C14E-B1C0-819E7EA551AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
@@ -116,6 +116,69 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0370</t>
+    <rPh sb="0" eb="1">
+      <t>yu'long'gong'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao'dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总务（崔先生）</t>
+    <rPh sb="0" eb="1">
+      <t>bao'fu'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'xian's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20*18*115*75/ 针扣/ 本色线/ 无Logo/ 底皮参照图片/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFC00000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弯针</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>lai'yang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hei'se</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mei'zhouebai'sexian</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -140,7 +203,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/ 卡地亚</t>
+      <t>/ 无</t>
     </r>
     <rPh sb="0" eb="1">
       <t>shou'feng</t>
@@ -148,49 +211,6 @@
     <rPh sb="5" eb="6">
       <t>yang'b</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0369</t>
-    <rPh sb="0" eb="1">
-      <t>yu'long'gong'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao'dai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ding'dan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>思欣（温真真）</t>
-    <rPh sb="0" eb="1">
-      <t>bao'fu'r</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xia'xian's</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡地亚蓝气球：大号/ 20*18/ 凸头/ 针扣/ 亮面冷蓝色鳄鱼</t>
-    <rPh sb="0" eb="1">
-      <t>lai'yang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mei'zhouebai'sexian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：要针扣款式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +301,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -545,23 +572,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>617003</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:rowOff>272000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2980900</xdr:colOff>
+      <xdr:colOff>3048003</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3337400</xdr:rowOff>
+      <xdr:rowOff>3346794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5933DE-CAA0-214E-9733-A5765CB414EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F6EC9F-0ABB-2F4A-B268-C85E186A5903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -576,9 +603,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2425701" y="2298701"/>
-          <a:ext cx="4415999" cy="3311999"/>
+        <a:xfrm rot="-5400000">
+          <a:off x="2638256" y="1349547"/>
+          <a:ext cx="3074794" cy="5466300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -859,7 +886,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -872,7 +899,7 @@
     <row r="1" spans="2:8" ht="17" thickBot="1"/>
     <row r="2" spans="2:8" ht="21">
       <c r="B2" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
@@ -882,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="18"/>
     </row>
@@ -894,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -904,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21">
@@ -912,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>43483</v>
+        <v>43486</v>
       </c>
       <c r="D6" s="20"/>
     </row>
@@ -922,7 +949,7 @@
       </c>
       <c r="C7" s="19">
         <f>C6+5</f>
-        <v>43488</v>
+        <v>43491</v>
       </c>
       <c r="D7" s="20"/>
       <c r="H7" t="s">
@@ -933,9 +960,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:8" ht="266" customHeight="1" thickBot="1">

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE66F4-C697-C14E-B1C0-819E7EA551AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4C8664-B05B-9745-8A62-73BC18937B8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与龙共舞表带   订单编号：0370</t>
+    <t>与龙共舞表带   订单编号：0371</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -135,7 +135,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总务（崔先生）</t>
+    <t>阿伟（黄生）</t>
     <rPh sb="0" eb="1">
       <t>bao'fu'r</t>
     </rPh>
@@ -146,29 +146,17 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">20*18*115*75/ 针扣/ 本色线/ 无Logo/ 底皮参照图片/ </t>
+      <t xml:space="preserve">来样1：1/ 正面亮面黑色+背面哑光黑色/ </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="13"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="DengXian (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>弯针</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
+      <t>机车</t>
     </r>
     <rPh sb="0" eb="1">
       <t>lai'yang</t>
@@ -191,7 +179,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">手缝 </t>
+      <t xml:space="preserve">机车 </t>
     </r>
     <r>
       <rPr>
@@ -305,7 +293,7 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian (正文)"/>
       <charset val="134"/>
     </font>
@@ -572,23 +560,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>617003</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>272000</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3048003</xdr:colOff>
+      <xdr:colOff>2993600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3346794</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F6EC9F-0ABB-2F4A-B268-C85E186A5903}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408BCE43-6424-8848-99A3-45809DF2840C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -603,9 +591,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="-5400000">
-          <a:off x="2638256" y="1349547"/>
-          <a:ext cx="3074794" cy="5466300"/>
+        <a:xfrm>
+          <a:off x="2438401" y="2311401"/>
+          <a:ext cx="4415999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>43486</v>
+        <v>43520</v>
       </c>
       <c r="D6" s="20"/>
     </row>
@@ -948,8 +936,8 @@
         <v>3</v>
       </c>
       <c r="C7" s="19">
-        <f>C6+5</f>
-        <v>43491</v>
+        <f>C6+7</f>
+        <v>43527</v>
       </c>
       <c r="D7" s="20"/>
       <c r="H7" t="s">

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4C8664-B05B-9745-8A62-73BC18937B8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FADD6F5-C767-324B-AB4B-063A55DE2DA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
@@ -119,7 +116,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与龙共舞表带   订单编号：0371</t>
+    <t>与龙共舞表带   订单编号：0388</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -135,38 +132,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（黄生）</t>
+    <t>小蔡（）</t>
     <rPh sb="0" eb="1">
-      <t>bao'fu'r</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xia'xian's</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">来样1：1/ 正面亮面黑色+背面哑光黑色/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机车</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>lai'yang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mei'zhouebai'sexian</t>
-    </rPh>
+      <t>bao'fu'rxia'xian's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来样1：1/ 红棕色鳄鱼竹节+背面圆点纹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -179,7 +152,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">机车 </t>
+      <t xml:space="preserve">手缝 </t>
     </r>
     <r>
       <rPr>
@@ -191,7 +164,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/ 无</t>
+      <t>/ 样板</t>
     </r>
     <rPh sb="0" eb="1">
       <t>shou'feng</t>
@@ -199,6 +172,10 @@
     <rPh sb="5" eb="6">
       <t>yang'b</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双面鳄鱼皮，背面用圆点纹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,13 +267,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -561,22 +531,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>1034331</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>39279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2993600</xdr:colOff>
+      <xdr:colOff>1410594</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3351278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408BCE43-6424-8848-99A3-45809DF2840C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262EB56A-B9D9-C044-9CD0-D64C73BA2329}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -592,8 +562,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438401" y="2311401"/>
-          <a:ext cx="4415999" cy="3311999"/>
+          <a:off x="3391032" y="2042475"/>
+          <a:ext cx="1868840" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,8 +843,8 @@
   </sheetPr>
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -901,7 +871,7 @@
       </c>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="2:8" ht="36">
+    <row r="4" spans="2:8" ht="18">
       <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
@@ -927,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>43520</v>
+        <v>43538</v>
       </c>
       <c r="D6" s="20"/>
     </row>
@@ -937,7 +907,7 @@
       </c>
       <c r="C7" s="19">
         <f>C6+7</f>
-        <v>43527</v>
+        <v>43545</v>
       </c>
       <c r="D7" s="20"/>
       <c r="H7" t="s">
@@ -948,7 +918,9 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:8" ht="266" customHeight="1" thickBot="1">

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FADD6F5-C767-324B-AB4B-063A55DE2DA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBEECE1-05E0-194E-9F5A-518B3FE63F0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,33 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0388</t>
-    <rPh sb="0" eb="1">
-      <t>yu'long'gong'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao'dai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ding'dan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小蔡（）</t>
-    <rPh sb="0" eb="1">
-      <t>bao'fu'rxia'xian's</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>来样1：1/ 红棕色鳄鱼竹节+背面圆点纹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -175,7 +148,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>双面鳄鱼皮，背面用圆点纹</t>
+    <t>阿伟（黄）</t>
+    <rPh sb="0" eb="1">
+      <t>bao'fu'rxia'xian's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来样1：1/ 亮面深咖色鳄鱼 * 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：做1条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0393</t>
+    <rPh sb="0" eb="1">
+      <t>yu'long'gong'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao'dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian'hao</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -531,22 +531,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1034331</xdr:colOff>
+      <xdr:colOff>50801</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>39279</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1410594</xdr:colOff>
+      <xdr:colOff>2968200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3351278</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262EB56A-B9D9-C044-9CD0-D64C73BA2329}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8BE66F-66BE-E848-A885-942828B35EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -562,8 +562,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3391032" y="2042475"/>
-          <a:ext cx="1868840" cy="3311999"/>
+          <a:off x="2413001" y="2082801"/>
+          <a:ext cx="4415999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -857,7 +857,7 @@
     <row r="1" spans="2:8" ht="17" thickBot="1"/>
     <row r="2" spans="2:8" ht="21">
       <c r="B2" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21">
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9"/>
     </row>

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBEECE1-05E0-194E-9F5A-518B3FE63F0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE902F6-C8B9-0046-BF9F-DB4C14A45C3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
@@ -148,22 +148,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（黄）</t>
+    <t>总务（夏先生）</t>
     <rPh sb="0" eb="1">
       <t>bao'fu'rxia'xian's</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>来样1：1/ 亮面深咖色鳄鱼 * 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：做1条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0393</t>
+    <t>劳力士：20*18*/ 黑色美洲鳄竹节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0407</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -531,22 +527,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>50801</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>203201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2968200</xdr:colOff>
+      <xdr:colOff>3032262</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3213100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8BE66F-66BE-E848-A885-942828B35EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3364AC36-B59B-DE43-BA93-1B9D8B7DD359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -562,8 +558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2413001" y="2082801"/>
-          <a:ext cx="4415999" cy="3311999"/>
+          <a:off x="2387600" y="2247901"/>
+          <a:ext cx="4505462" cy="3009899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,7 +840,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -857,7 +853,7 @@
     <row r="1" spans="2:8" ht="17" thickBot="1"/>
     <row r="2" spans="2:8" ht="21">
       <c r="B2" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
@@ -897,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>43538</v>
+        <v>43551</v>
       </c>
       <c r="D6" s="20"/>
     </row>
@@ -907,7 +903,7 @@
       </c>
       <c r="C7" s="19">
         <f>C6+7</f>
-        <v>43545</v>
+        <v>43558</v>
       </c>
       <c r="D7" s="20"/>
       <c r="H7" t="s">
@@ -918,9 +914,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:8" ht="266" customHeight="1" thickBot="1">

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE902F6-C8B9-0046-BF9F-DB4C14A45C3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1DEC8E-D80C-AE41-9150-9D9A3715F8D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/ 样板</t>
+      <t>/ 卡地亚</t>
     </r>
     <rPh sb="0" eb="1">
       <t>shou'feng</t>
@@ -148,30 +148,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总务（夏先生）</t>
+    <t>与龙共舞表带   订单编号：0409</t>
+    <rPh sb="0" eb="1">
+      <t>yu'long'gong'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao'dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵（Run）</t>
     <rPh sb="0" eb="1">
       <t>bao'fu'rxia'xian's</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>劳力士：20*18*/ 黑色美洲鳄竹节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0407</t>
-    <rPh sb="0" eb="1">
-      <t>yu'long'gong'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao'dai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ding'dan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bian'hao</t>
-    </rPh>
+    <t>卡地亚蓝气球：大号/ 黑色哑光竹节纹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,22 +527,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>114301</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>203201</xdr:rowOff>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3032262</xdr:colOff>
+      <xdr:colOff>2950778</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3213100</xdr:rowOff>
+      <xdr:rowOff>3337400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3364AC36-B59B-DE43-BA93-1B9D8B7DD359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992AAB8E-549B-5349-BED8-C514CF4C6A4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -558,8 +558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2387600" y="2247901"/>
-          <a:ext cx="4505462" cy="3009899"/>
+          <a:off x="2476501" y="2070101"/>
+          <a:ext cx="4335077" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,7 +840,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -853,7 +853,7 @@
     <row r="1" spans="2:8" ht="17" thickBot="1"/>
     <row r="2" spans="2:8" ht="21">
       <c r="B2" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
@@ -863,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="18"/>
     </row>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>43551</v>
+        <v>43556</v>
       </c>
       <c r="D6" s="20"/>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C7" s="19">
         <f>C6+7</f>
-        <v>43558</v>
+        <v>43563</v>
       </c>
       <c r="D7" s="20"/>
       <c r="H7" t="s">

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1DEC8E-D80C-AE41-9150-9D9A3715F8D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0441499D-4715-9644-AB5E-599EA9CD948C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/ 卡地亚</t>
+      <t>/ 无</t>
     </r>
     <rPh sb="0" eb="1">
       <t>shou'feng</t>
@@ -148,7 +148,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>与龙共舞表带   订单编号：0409</t>
+    <t>小蔡</t>
+    <rPh sb="0" eb="1">
+      <t>bao'fu'rxia'xian's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19*16*1115*75/ 针扣/ 底皮黑色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0412</t>
     <rPh sb="0" eb="1">
       <t>yu'long'gong'wu</t>
     </rPh>
@@ -161,17 +172,6 @@
     <rPh sb="11" eb="12">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵（Run）</t>
-    <rPh sb="0" eb="1">
-      <t>bao'fu'rxia'xian's</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡地亚蓝气球：大号/ 黑色哑光竹节纹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,22 +527,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2950778</xdr:colOff>
+      <xdr:colOff>2993600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>3337400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992AAB8E-549B-5349-BED8-C514CF4C6A4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616488B8-86F8-1042-B6BC-B6D9257C5F08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -558,8 +558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476501" y="2070101"/>
-          <a:ext cx="4335077" cy="3311999"/>
+          <a:off x="2438401" y="2070101"/>
+          <a:ext cx="4415999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,7 +840,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -853,7 +853,7 @@
     <row r="1" spans="2:8" ht="17" thickBot="1"/>
     <row r="2" spans="2:8" ht="21">
       <c r="B2" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
@@ -863,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="18"/>
     </row>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>43556</v>
+        <v>43559</v>
       </c>
       <c r="D6" s="20"/>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C7" s="19">
         <f>C6+7</f>
-        <v>43563</v>
+        <v>43566</v>
       </c>
       <c r="D7" s="20"/>
       <c r="H7" t="s">

--- a/表带订单模板.xlsx
+++ b/表带订单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0441499D-4715-9644-AB5E-599EA9CD948C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E6D9BE-AE02-384E-B02A-1E5ACBAA9E5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
@@ -113,6 +113,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蔡</t>
+    <rPh sb="0" eb="1">
+      <t>bao'fu'rxia'xian's</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与龙共舞表带   订单编号：0414</t>
+    <rPh sb="0" eb="1">
+      <t>yu'long'gong'wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao'dai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">卡地亚坦克：20*18 3-2mm厚度/ </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -139,6 +166,18 @@
       </rPr>
       <t>/ 无</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logo</t>
+    </r>
     <rPh sb="0" eb="1">
       <t>shou'feng</t>
     </rPh>
@@ -148,30 +187,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小蔡</t>
-    <rPh sb="0" eb="1">
-      <t>bao'fu'rxia'xian's</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19*16*1115*75/ 针扣/ 底皮黑色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与龙共舞表带   订单编号：0412</t>
-    <rPh sb="0" eb="1">
-      <t>yu'long'gong'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao'dai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ding'dan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>bian'hao</t>
-    </rPh>
+    <t>画圈位置，黑+白的部分开料（靠近右侧边缘）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -526,23 +542,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2993600</xdr:colOff>
+      <xdr:colOff>2992000</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>3337400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616488B8-86F8-1042-B6BC-B6D9257C5F08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62701351-E4A5-B54F-9EB3-65F3CAE10199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -558,8 +574,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438401" y="2070101"/>
-          <a:ext cx="4415999" cy="3311999"/>
+          <a:off x="4368801" y="2070101"/>
+          <a:ext cx="2483999" cy="3311999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25402</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546102</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3352801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68648497-7A04-084E-BB1C-C96506E296B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850902" y="2730501"/>
+          <a:ext cx="3556000" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,7 +900,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -853,7 +913,7 @@
     <row r="1" spans="2:8" ht="17" thickBot="1"/>
     <row r="2" spans="2:8" ht="21">
       <c r="B2" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
@@ -863,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="18"/>
     </row>
@@ -885,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21">
@@ -893,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>43559</v>
+        <v>43566</v>
       </c>
       <c r="D6" s="20"/>
     </row>
@@ -903,7 +963,7 @@
       </c>
       <c r="C7" s="19">
         <f>C6+7</f>
-        <v>43566</v>
+        <v>43573</v>
       </c>
       <c r="D7" s="20"/>
       <c r="H7" t="s">
@@ -914,7 +974,9 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:8" ht="266" customHeight="1" thickBot="1">
